--- a/metadata_nanostring.xlsx
+++ b/metadata_nanostring.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20535" windowHeight="8745"/>
+    <workbookView windowWidth="27795" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7258" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7253" uniqueCount="1212">
   <si>
     <t>Sample.ID</t>
   </si>
@@ -3175,25 +3175,22 @@
     <t>C21_0883</t>
   </si>
   <si>
-    <t>C21_0892</t>
+    <t>C21_0898</t>
+  </si>
+  <si>
+    <t>C21_0899</t>
+  </si>
+  <si>
+    <t>C21_0900</t>
+  </si>
+  <si>
+    <t>C21_0901</t>
+  </si>
+  <si>
+    <t>C21_0915</t>
   </si>
   <si>
     <t>HIGADO, NE</t>
-  </si>
-  <si>
-    <t>C21_0898</t>
-  </si>
-  <si>
-    <t>C21_0899</t>
-  </si>
-  <si>
-    <t>C21_0900</t>
-  </si>
-  <si>
-    <t>C21_0901</t>
-  </si>
-  <si>
-    <t>C21_0915</t>
   </si>
   <si>
     <t>C21_0937</t>
@@ -3660,10 +3657,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3671,6 +3668,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3685,51 +3704,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3745,50 +3740,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3804,22 +3771,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3840,43 +3837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3888,7 +3849,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3906,13 +3903,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3924,49 +3963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3978,7 +3975,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3991,30 +4012,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4061,28 +4058,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4102,36 +4097,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4140,136 +4137,136 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4615,10 +4612,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1038"/>
+  <dimension ref="A1:H1037"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A866" workbookViewId="0">
+      <selection activeCell="A890" sqref="$A890:$XFD890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
@@ -27739,21 +27736,27 @@
         <v>220</v>
       </c>
       <c r="C890" t="s">
-        <v>1054</v>
+        <v>1040</v>
+      </c>
+      <c r="D890" t="s">
+        <v>27</v>
+      </c>
+      <c r="E890" t="s">
+        <v>46</v>
       </c>
       <c r="F890" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G890">
-        <v>4.69742216453525</v>
+        <v>-0.415132220714008</v>
       </c>
       <c r="H890" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="891" spans="1:8">
       <c r="A891" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B891" t="s">
         <v>220</v>
@@ -27771,7 +27774,7 @@
         <v>13</v>
       </c>
       <c r="G891">
-        <v>-0.415132220714008</v>
+        <v>-0.132066765216497</v>
       </c>
       <c r="H891" t="s">
         <v>19</v>
@@ -27779,80 +27782,80 @@
     </row>
     <row r="892" spans="1:8">
       <c r="A892" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B892" t="s">
         <v>220</v>
       </c>
       <c r="C892" t="s">
-        <v>1040</v>
+        <v>682</v>
       </c>
       <c r="D892" t="s">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="E892" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F892" t="s">
         <v>13</v>
       </c>
       <c r="G892">
-        <v>-0.132066765216497</v>
+        <v>-1.79483620219813</v>
       </c>
       <c r="H892" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="893" spans="1:8">
       <c r="A893" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B893" t="s">
         <v>220</v>
       </c>
       <c r="C893" t="s">
-        <v>682</v>
+        <v>1040</v>
       </c>
       <c r="D893" t="s">
-        <v>267</v>
+        <v>21</v>
       </c>
       <c r="E893" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F893" t="s">
         <v>13</v>
       </c>
       <c r="G893">
-        <v>-1.79483620219813</v>
+        <v>-0.411876223040848</v>
       </c>
       <c r="H893" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="894" spans="1:8">
       <c r="A894" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B894" t="s">
+        <v>220</v>
+      </c>
+      <c r="C894" t="s">
         <v>1058</v>
       </c>
-      <c r="B894" t="s">
-        <v>220</v>
-      </c>
-      <c r="C894" t="s">
-        <v>1040</v>
-      </c>
       <c r="D894" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E894" t="s">
         <v>46</v>
       </c>
       <c r="F894" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G894">
-        <v>-0.411876223040848</v>
+        <v>-0.892404831093891</v>
       </c>
       <c r="H894" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -27863,22 +27866,22 @@
         <v>220</v>
       </c>
       <c r="C895" t="s">
-        <v>1054</v>
+        <v>725</v>
       </c>
       <c r="D895" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E895" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F895" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G895">
-        <v>-0.892404831093891</v>
+        <v>-0.265587034766408</v>
       </c>
       <c r="H895" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -27889,22 +27892,22 @@
         <v>220</v>
       </c>
       <c r="C896" t="s">
-        <v>725</v>
+        <v>1040</v>
       </c>
       <c r="D896" t="s">
         <v>27</v>
       </c>
       <c r="E896" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="F896" t="s">
         <v>13</v>
       </c>
       <c r="G896">
-        <v>-0.265587034766408</v>
+        <v>0.951636505910633</v>
       </c>
       <c r="H896" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -27915,22 +27918,22 @@
         <v>220</v>
       </c>
       <c r="C897" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D897" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E897" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F897" t="s">
         <v>13</v>
       </c>
       <c r="G897">
-        <v>0.951636505910633</v>
+        <v>-0.985782869661607</v>
       </c>
       <c r="H897" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -27941,19 +27944,19 @@
         <v>220</v>
       </c>
       <c r="C898" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="D898" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E898" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="F898" t="s">
         <v>13</v>
       </c>
       <c r="G898">
-        <v>-0.985782869661607</v>
+        <v>-1.42666751132486</v>
       </c>
       <c r="H898" t="s">
         <v>14</v>
@@ -27967,22 +27970,22 @@
         <v>220</v>
       </c>
       <c r="C899" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="D899" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E899" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="F899" t="s">
         <v>13</v>
       </c>
       <c r="G899">
-        <v>-1.42666751132486</v>
+        <v>1.30949064359662</v>
       </c>
       <c r="H899" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -27993,22 +27996,22 @@
         <v>220</v>
       </c>
       <c r="C900" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
       <c r="D900" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E900" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="F900" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G900">
-        <v>1.30949064359662</v>
+        <v>-0.841490622070024</v>
       </c>
       <c r="H900" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -28019,19 +28022,19 @@
         <v>220</v>
       </c>
       <c r="C901" t="s">
-        <v>1043</v>
+        <v>1058</v>
       </c>
       <c r="D901" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E901" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="F901" t="s">
         <v>35</v>
       </c>
       <c r="G901">
-        <v>-0.841490622070024</v>
+        <v>-2.16606789215078</v>
       </c>
       <c r="H901" t="s">
         <v>14</v>
@@ -28045,22 +28048,22 @@
         <v>220</v>
       </c>
       <c r="C902" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D902" t="s">
         <v>27</v>
       </c>
       <c r="E902" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F902" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G902">
-        <v>-2.16606789215078</v>
+        <v>-0.243529909568718</v>
       </c>
       <c r="H902" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -28071,22 +28074,22 @@
         <v>220</v>
       </c>
       <c r="C903" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="D903" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E903" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F903" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G903">
-        <v>-0.243529909568718</v>
+        <v>1.21129530863587</v>
       </c>
       <c r="H903" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -28097,19 +28100,19 @@
         <v>220</v>
       </c>
       <c r="C904" t="s">
-        <v>1054</v>
+        <v>1031</v>
       </c>
       <c r="D904" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E904" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="F904" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G904">
-        <v>1.21129530863587</v>
+        <v>0.892094800364466</v>
       </c>
       <c r="H904" t="s">
         <v>25</v>
@@ -28123,22 +28126,22 @@
         <v>220</v>
       </c>
       <c r="C905" t="s">
-        <v>1031</v>
+        <v>467</v>
       </c>
       <c r="D905" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E905" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F905" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G905">
-        <v>0.892094800364466</v>
+        <v>-0.363773817581445</v>
       </c>
       <c r="H905" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -28149,19 +28152,19 @@
         <v>220</v>
       </c>
       <c r="C906" t="s">
-        <v>467</v>
+        <v>1071</v>
       </c>
       <c r="D906" t="s">
         <v>27</v>
       </c>
       <c r="E906" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F906" t="s">
         <v>35</v>
       </c>
       <c r="G906">
-        <v>-0.363773817581445</v>
+        <v>0.704899230473216</v>
       </c>
       <c r="H906" t="s">
         <v>19</v>
@@ -28169,28 +28172,28 @@
     </row>
     <row r="907" spans="1:8">
       <c r="A907" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B907" t="s">
         <v>220</v>
       </c>
       <c r="C907" t="s">
-        <v>1072</v>
+        <v>1031</v>
       </c>
       <c r="D907" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E907" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="F907" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G907">
-        <v>0.704899230473216</v>
+        <v>1.08014717420553</v>
       </c>
       <c r="H907" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -28201,19 +28204,19 @@
         <v>220</v>
       </c>
       <c r="C908" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="D908" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E908" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F908" t="s">
         <v>13</v>
       </c>
       <c r="G908">
-        <v>1.08014717420553</v>
+        <v>0.968580206484076</v>
       </c>
       <c r="H908" t="s">
         <v>25</v>
@@ -28227,22 +28230,22 @@
         <v>220</v>
       </c>
       <c r="C909" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="D909" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E909" t="s">
         <v>46</v>
       </c>
       <c r="F909" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G909">
-        <v>0.968580206484076</v>
+        <v>-0.762279191228559</v>
       </c>
       <c r="H909" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -28253,10 +28256,10 @@
         <v>220</v>
       </c>
       <c r="C910" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D910" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E910" t="s">
         <v>46</v>
@@ -28265,10 +28268,10 @@
         <v>35</v>
       </c>
       <c r="G910">
-        <v>-0.762279191228559</v>
+        <v>0.224892296366339</v>
       </c>
       <c r="H910" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -28282,16 +28285,16 @@
         <v>1040</v>
       </c>
       <c r="D911" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E911" t="s">
         <v>46</v>
       </c>
       <c r="F911" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G911">
-        <v>0.224892296366339</v>
+        <v>0.255833280369364</v>
       </c>
       <c r="H911" t="s">
         <v>19</v>
@@ -28305,22 +28308,22 @@
         <v>220</v>
       </c>
       <c r="C912" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="D912" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E912" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F912" t="s">
         <v>13</v>
       </c>
       <c r="G912">
-        <v>0.255833280369364</v>
+        <v>-0.888175819089693</v>
       </c>
       <c r="H912" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -28331,22 +28334,22 @@
         <v>220</v>
       </c>
       <c r="C913" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="D913" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E913" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F913" t="s">
         <v>13</v>
       </c>
       <c r="G913">
-        <v>-0.888175819089693</v>
+        <v>-0.304758125058975</v>
       </c>
       <c r="H913" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -28357,45 +28360,45 @@
         <v>220</v>
       </c>
       <c r="C914" t="s">
-        <v>1040</v>
+        <v>1080</v>
       </c>
       <c r="D914" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E914" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F914" t="s">
         <v>13</v>
       </c>
       <c r="G914">
-        <v>-0.304758125058975</v>
+        <v>-1.62110857081058</v>
       </c>
       <c r="H914" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="915" spans="1:8">
       <c r="A915" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B915" t="s">
         <v>220</v>
       </c>
       <c r="C915" t="s">
-        <v>1081</v>
+        <v>1033</v>
       </c>
       <c r="D915" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E915" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="F915" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G915">
-        <v>-1.62110857081058</v>
+        <v>-0.809376350445534</v>
       </c>
       <c r="H915" t="s">
         <v>14</v>
@@ -28409,22 +28412,22 @@
         <v>220</v>
       </c>
       <c r="C916" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="D916" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="E916" t="s">
         <v>46</v>
       </c>
       <c r="F916" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G916">
-        <v>-0.809376350445534</v>
+        <v>-0.274010665570732</v>
       </c>
       <c r="H916" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -28435,22 +28438,22 @@
         <v>220</v>
       </c>
       <c r="C917" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="D917" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E917" t="s">
         <v>46</v>
       </c>
       <c r="F917" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G917">
-        <v>-0.274010665570732</v>
+        <v>-0.95678222162976</v>
       </c>
       <c r="H917" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -28461,22 +28464,22 @@
         <v>220</v>
       </c>
       <c r="C918" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D918" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E918" t="s">
         <v>46</v>
       </c>
       <c r="F918" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G918">
-        <v>-0.95678222162976</v>
+        <v>1.95222054456444</v>
       </c>
       <c r="H918" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -28487,10 +28490,10 @@
         <v>220</v>
       </c>
       <c r="C919" t="s">
-        <v>1040</v>
+        <v>1086</v>
       </c>
       <c r="D919" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E919" t="s">
         <v>46</v>
@@ -28499,24 +28502,24 @@
         <v>13</v>
       </c>
       <c r="G919">
-        <v>1.95222054456444</v>
+        <v>0.476726582057768</v>
       </c>
       <c r="H919" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="920" spans="1:8">
       <c r="A920" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B920" t="s">
         <v>220</v>
       </c>
       <c r="C920" t="s">
-        <v>1087</v>
+        <v>1040</v>
       </c>
       <c r="D920" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E920" t="s">
         <v>46</v>
@@ -28525,7 +28528,7 @@
         <v>13</v>
       </c>
       <c r="G920">
-        <v>0.476726582057768</v>
+        <v>-0.291097660795396</v>
       </c>
       <c r="H920" t="s">
         <v>19</v>
@@ -28539,48 +28542,48 @@
         <v>220</v>
       </c>
       <c r="C921" t="s">
-        <v>1040</v>
+        <v>1089</v>
       </c>
       <c r="D921" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E921" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F921" t="s">
         <v>13</v>
       </c>
       <c r="G921">
-        <v>-0.291097660795396</v>
+        <v>-1.79091314948294</v>
       </c>
       <c r="H921" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="922" spans="1:8">
       <c r="A922" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B922" t="s">
         <v>220</v>
       </c>
       <c r="C922" t="s">
-        <v>1090</v>
+        <v>1040</v>
       </c>
       <c r="D922" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E922" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="F922" t="s">
         <v>13</v>
       </c>
       <c r="G922">
-        <v>-1.79091314948294</v>
+        <v>-0.192506295983514</v>
       </c>
       <c r="H922" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -28591,22 +28594,22 @@
         <v>220</v>
       </c>
       <c r="C923" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="D923" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E923" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F923" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G923">
-        <v>-0.192506295983514</v>
+        <v>2.10378122588462</v>
       </c>
       <c r="H923" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -28617,19 +28620,19 @@
         <v>220</v>
       </c>
       <c r="C924" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="D924" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E924" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="F924" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G924">
-        <v>2.10378122588462</v>
+        <v>0.773393626711499</v>
       </c>
       <c r="H924" t="s">
         <v>25</v>
@@ -28643,19 +28646,19 @@
         <v>220</v>
       </c>
       <c r="C925" t="s">
-        <v>1031</v>
+        <v>682</v>
       </c>
       <c r="D925" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E925" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F925" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G925">
-        <v>0.773393626711499</v>
+        <v>1.74283599493875</v>
       </c>
       <c r="H925" t="s">
         <v>25</v>
@@ -28669,22 +28672,22 @@
         <v>220</v>
       </c>
       <c r="C926" t="s">
-        <v>682</v>
+        <v>1040</v>
       </c>
       <c r="D926" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E926" t="s">
         <v>46</v>
       </c>
       <c r="F926" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G926">
-        <v>1.74283599493875</v>
+        <v>-0.297371423623625</v>
       </c>
       <c r="H926" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -28695,22 +28698,22 @@
         <v>220</v>
       </c>
       <c r="C927" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D927" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E927" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F927" t="s">
         <v>13</v>
       </c>
       <c r="G927">
-        <v>-0.297371423623625</v>
+        <v>-0.835886038081793</v>
       </c>
       <c r="H927" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -28721,22 +28724,22 @@
         <v>220</v>
       </c>
       <c r="C928" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="D928" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E928" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F928" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G928">
-        <v>-0.835886038081793</v>
+        <v>0.507896487463201</v>
       </c>
       <c r="H928" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -28753,16 +28756,16 @@
         <v>27</v>
       </c>
       <c r="E929" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F929" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G929">
-        <v>0.507896487463201</v>
+        <v>1.73315399052116</v>
       </c>
       <c r="H929" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -28776,7 +28779,7 @@
         <v>1036</v>
       </c>
       <c r="D930" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E930" t="s">
         <v>18</v>
@@ -28785,10 +28788,10 @@
         <v>13</v>
       </c>
       <c r="G930">
-        <v>1.73315399052116</v>
+        <v>0.0632800167161732</v>
       </c>
       <c r="H930" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -28799,22 +28802,22 @@
         <v>220</v>
       </c>
       <c r="C931" t="s">
-        <v>1036</v>
+        <v>1058</v>
       </c>
       <c r="D931" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E931" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F931" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G931">
-        <v>0.0632800167161732</v>
+        <v>-1.30631154529288</v>
       </c>
       <c r="H931" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -28825,22 +28828,22 @@
         <v>220</v>
       </c>
       <c r="C932" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D932" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E932" t="s">
         <v>46</v>
       </c>
       <c r="F932" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G932">
-        <v>-1.30631154529288</v>
+        <v>-0.288407843205227</v>
       </c>
       <c r="H932" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -28851,22 +28854,22 @@
         <v>220</v>
       </c>
       <c r="C933" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="D933" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E933" t="s">
         <v>46</v>
       </c>
       <c r="F933" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G933">
-        <v>-0.288407843205227</v>
+        <v>1.40445863651274</v>
       </c>
       <c r="H933" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -28877,22 +28880,22 @@
         <v>220</v>
       </c>
       <c r="C934" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="D934" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E934" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F934" t="s">
         <v>35</v>
       </c>
       <c r="G934">
-        <v>1.40445863651274</v>
+        <v>-3.40184651405155</v>
       </c>
       <c r="H934" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -28903,19 +28906,19 @@
         <v>220</v>
       </c>
       <c r="C935" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="D935" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E935" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="F935" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G935">
-        <v>-3.40184651405155</v>
+        <v>-2.0951001956685</v>
       </c>
       <c r="H935" t="s">
         <v>14</v>
@@ -28929,22 +28932,22 @@
         <v>220</v>
       </c>
       <c r="C936" t="s">
-        <v>1043</v>
+        <v>1080</v>
       </c>
       <c r="D936" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E936" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="F936" t="s">
         <v>13</v>
       </c>
       <c r="G936">
-        <v>-2.0951001956685</v>
+        <v>1.29260376566016</v>
       </c>
       <c r="H936" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -28955,22 +28958,22 @@
         <v>220</v>
       </c>
       <c r="C937" t="s">
-        <v>1081</v>
+        <v>1031</v>
       </c>
       <c r="D937" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E937" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F937" t="s">
         <v>13</v>
       </c>
       <c r="G937">
-        <v>1.29260376566016</v>
+        <v>-0.394354924551268</v>
       </c>
       <c r="H937" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -28981,19 +28984,19 @@
         <v>220</v>
       </c>
       <c r="C938" t="s">
-        <v>1031</v>
+        <v>1086</v>
       </c>
       <c r="D938" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E938" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F938" t="s">
         <v>13</v>
       </c>
       <c r="G938">
-        <v>-0.394354924551268</v>
+        <v>0.413996488603487</v>
       </c>
       <c r="H938" t="s">
         <v>19</v>
@@ -29007,19 +29010,19 @@
         <v>220</v>
       </c>
       <c r="C939" t="s">
-        <v>1087</v>
+        <v>1043</v>
       </c>
       <c r="D939" t="s">
         <v>27</v>
       </c>
       <c r="E939" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F939" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G939">
-        <v>0.413996488603487</v>
+        <v>-0.0861651365089495</v>
       </c>
       <c r="H939" t="s">
         <v>19</v>
@@ -29033,22 +29036,22 @@
         <v>220</v>
       </c>
       <c r="C940" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D940" t="s">
         <v>27</v>
       </c>
       <c r="E940" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F940" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G940">
-        <v>-0.0861651365089495</v>
+        <v>-1.1644347307787</v>
       </c>
       <c r="H940" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -29059,19 +29062,19 @@
         <v>220</v>
       </c>
       <c r="C941" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D941" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E941" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F941" t="s">
         <v>13</v>
       </c>
       <c r="G941">
-        <v>-1.1644347307787</v>
+        <v>-2.6954029507506</v>
       </c>
       <c r="H941" t="s">
         <v>14</v>
@@ -29088,7 +29091,7 @@
         <v>1043</v>
       </c>
       <c r="D942" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E942" t="s">
         <v>12</v>
@@ -29097,7 +29100,7 @@
         <v>13</v>
       </c>
       <c r="G942">
-        <v>-2.6954029507506</v>
+        <v>-1.22328219921039</v>
       </c>
       <c r="H942" t="s">
         <v>14</v>
@@ -29111,19 +29114,19 @@
         <v>220</v>
       </c>
       <c r="C943" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="D943" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E943" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="F943" t="s">
         <v>13</v>
       </c>
       <c r="G943">
-        <v>-1.22328219921039</v>
+        <v>-1.86814726026969</v>
       </c>
       <c r="H943" t="s">
         <v>14</v>
@@ -29137,22 +29140,22 @@
         <v>220</v>
       </c>
       <c r="C944" t="s">
-        <v>1031</v>
+        <v>494</v>
       </c>
       <c r="D944" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E944" t="s">
-        <v>135</v>
+        <v>495</v>
       </c>
       <c r="F944" t="s">
         <v>13</v>
       </c>
       <c r="G944">
-        <v>-1.86814726026969</v>
+        <v>0.709037162838793</v>
       </c>
       <c r="H944" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -29163,22 +29166,22 @@
         <v>220</v>
       </c>
       <c r="C945" t="s">
-        <v>494</v>
+        <v>1045</v>
       </c>
       <c r="D945" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E945" t="s">
-        <v>495</v>
+        <v>84</v>
       </c>
       <c r="F945" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G945">
-        <v>0.709037162838793</v>
+        <v>-0.844598518768889</v>
       </c>
       <c r="H945" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -29189,22 +29192,22 @@
         <v>220</v>
       </c>
       <c r="C946" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="D946" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E946" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="F946" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G946">
-        <v>-0.844598518768889</v>
+        <v>0.417704695623037</v>
       </c>
       <c r="H946" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -29215,19 +29218,19 @@
         <v>220</v>
       </c>
       <c r="C947" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="D947" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E947" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F947" t="s">
         <v>13</v>
       </c>
       <c r="G947">
-        <v>0.417704695623037</v>
+        <v>-0.474268351709626</v>
       </c>
       <c r="H947" t="s">
         <v>19</v>
@@ -29241,19 +29244,19 @@
         <v>220</v>
       </c>
       <c r="C948" t="s">
-        <v>1031</v>
+        <v>1086</v>
       </c>
       <c r="D948" t="s">
         <v>17</v>
       </c>
       <c r="E948" t="s">
-        <v>135</v>
+        <v>621</v>
       </c>
       <c r="F948" t="s">
         <v>13</v>
       </c>
       <c r="G948">
-        <v>-0.474268351709626</v>
+        <v>0.0313473464217347</v>
       </c>
       <c r="H948" t="s">
         <v>19</v>
@@ -29267,19 +29270,19 @@
         <v>220</v>
       </c>
       <c r="C949" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D949" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E949" t="s">
-        <v>621</v>
+        <v>46</v>
       </c>
       <c r="F949" t="s">
         <v>13</v>
       </c>
       <c r="G949">
-        <v>0.0313473464217347</v>
+        <v>0.597594161409322</v>
       </c>
       <c r="H949" t="s">
         <v>19</v>
@@ -29293,22 +29296,22 @@
         <v>220</v>
       </c>
       <c r="C950" t="s">
-        <v>1087</v>
+        <v>1006</v>
       </c>
       <c r="D950" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="E950" t="s">
         <v>46</v>
       </c>
       <c r="F950" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G950">
-        <v>0.597594161409322</v>
+        <v>-0.881763545059868</v>
       </c>
       <c r="H950" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -29319,22 +29322,22 @@
         <v>220</v>
       </c>
       <c r="C951" t="s">
-        <v>1006</v>
+        <v>1036</v>
       </c>
       <c r="D951" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="E951" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F951" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G951">
-        <v>-0.881763545059868</v>
+        <v>1.30806391109323</v>
       </c>
       <c r="H951" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -29348,16 +29351,16 @@
         <v>1036</v>
       </c>
       <c r="D952" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E952" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F952" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G952">
-        <v>1.30806391109323</v>
+        <v>1.94134966047381</v>
       </c>
       <c r="H952" t="s">
         <v>25</v>
@@ -29371,22 +29374,22 @@
         <v>220</v>
       </c>
       <c r="C953" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="D953" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E953" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F953" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G953">
-        <v>1.94134966047381</v>
+        <v>-1.21405462089737</v>
       </c>
       <c r="H953" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -29397,22 +29400,22 @@
         <v>220</v>
       </c>
       <c r="C954" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="D954" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E954" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F954" t="s">
         <v>13</v>
       </c>
       <c r="G954">
-        <v>-1.21405462089737</v>
+        <v>0.416782163883917</v>
       </c>
       <c r="H954" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -29426,7 +29429,7 @@
         <v>1040</v>
       </c>
       <c r="D955" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E955" t="s">
         <v>46</v>
@@ -29435,7 +29438,7 @@
         <v>13</v>
       </c>
       <c r="G955">
-        <v>0.416782163883917</v>
+        <v>0.524174540777691</v>
       </c>
       <c r="H955" t="s">
         <v>19</v>
@@ -29449,22 +29452,22 @@
         <v>220</v>
       </c>
       <c r="C956" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D956" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E956" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F956" t="s">
         <v>13</v>
       </c>
       <c r="G956">
-        <v>0.524174540777691</v>
+        <v>1.61795581849596</v>
       </c>
       <c r="H956" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -29478,16 +29481,16 @@
         <v>1036</v>
       </c>
       <c r="D957" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E957" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F957" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G957">
-        <v>1.61795581849596</v>
+        <v>1.26611750371913</v>
       </c>
       <c r="H957" t="s">
         <v>25</v>
@@ -29501,22 +29504,22 @@
         <v>220</v>
       </c>
       <c r="C958" t="s">
-        <v>1036</v>
+        <v>1080</v>
       </c>
       <c r="D958" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E958" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F958" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G958">
-        <v>1.26611750371913</v>
+        <v>-2.55054586042213</v>
       </c>
       <c r="H958" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -29527,22 +29530,22 @@
         <v>220</v>
       </c>
       <c r="C959" t="s">
-        <v>1081</v>
+        <v>1040</v>
       </c>
       <c r="D959" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E959" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="F959" t="s">
         <v>13</v>
       </c>
       <c r="G959">
-        <v>-2.55054586042213</v>
+        <v>-0.555115278809664</v>
       </c>
       <c r="H959" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -29556,7 +29559,7 @@
         <v>1040</v>
       </c>
       <c r="D960" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E960" t="s">
         <v>46</v>
@@ -29565,7 +29568,7 @@
         <v>13</v>
       </c>
       <c r="G960">
-        <v>-0.555115278809664</v>
+        <v>0.495141607346811</v>
       </c>
       <c r="H960" t="s">
         <v>19</v>
@@ -29579,22 +29582,22 @@
         <v>220</v>
       </c>
       <c r="C961" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="D961" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E961" t="s">
         <v>46</v>
       </c>
       <c r="F961" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G961">
-        <v>0.495141607346811</v>
+        <v>-2.55537036361184</v>
       </c>
       <c r="H961" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -29605,10 +29608,10 @@
         <v>220</v>
       </c>
       <c r="C962" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="D962" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E962" t="s">
         <v>46</v>
@@ -29617,7 +29620,7 @@
         <v>35</v>
       </c>
       <c r="G962">
-        <v>-2.55537036361184</v>
+        <v>-1.50830200385606</v>
       </c>
       <c r="H962" t="s">
         <v>14</v>
@@ -29631,19 +29634,19 @@
         <v>220</v>
       </c>
       <c r="C963" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="D963" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E963" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F963" t="s">
         <v>35</v>
       </c>
       <c r="G963">
-        <v>-1.50830200385606</v>
+        <v>-0.942093605288684</v>
       </c>
       <c r="H963" t="s">
         <v>14</v>
@@ -29657,22 +29660,22 @@
         <v>220</v>
       </c>
       <c r="C964" t="s">
-        <v>1054</v>
+        <v>1086</v>
       </c>
       <c r="D964" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E964" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F964" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G964">
-        <v>-0.942093605288684</v>
+        <v>-0.579869720255236</v>
       </c>
       <c r="H964" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -29683,22 +29686,22 @@
         <v>220</v>
       </c>
       <c r="C965" t="s">
-        <v>1087</v>
+        <v>1043</v>
       </c>
       <c r="D965" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="E965" t="s">
-        <v>46</v>
+        <v>592</v>
       </c>
       <c r="F965" t="s">
         <v>13</v>
       </c>
       <c r="G965">
-        <v>-0.579869720255236</v>
+        <v>-1.24456844058191</v>
       </c>
       <c r="H965" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -29709,22 +29712,22 @@
         <v>220</v>
       </c>
       <c r="C966" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D966" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E966" t="s">
-        <v>592</v>
+        <v>46</v>
       </c>
       <c r="F966" t="s">
         <v>13</v>
       </c>
       <c r="G966">
-        <v>-1.24456844058191</v>
+        <v>0.395400780948542</v>
       </c>
       <c r="H966" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -29735,19 +29738,19 @@
         <v>220</v>
       </c>
       <c r="C967" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D967" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E967" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="F967" t="s">
         <v>13</v>
       </c>
       <c r="G967">
-        <v>0.395400780948542</v>
+        <v>-0.61059588681305</v>
       </c>
       <c r="H967" t="s">
         <v>19</v>
@@ -29761,19 +29764,19 @@
         <v>220</v>
       </c>
       <c r="C968" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="D968" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E968" t="s">
-        <v>252</v>
+        <v>46</v>
       </c>
       <c r="F968" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G968">
-        <v>-0.61059588681305</v>
+        <v>-0.237016305293822</v>
       </c>
       <c r="H968" t="s">
         <v>19</v>
@@ -29787,10 +29790,10 @@
         <v>220</v>
       </c>
       <c r="C969" t="s">
-        <v>1033</v>
+        <v>1058</v>
       </c>
       <c r="D969" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E969" t="s">
         <v>46</v>
@@ -29799,10 +29802,10 @@
         <v>35</v>
       </c>
       <c r="G969">
-        <v>-0.237016305293822</v>
+        <v>-0.755015416586647</v>
       </c>
       <c r="H969" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -29813,22 +29816,22 @@
         <v>220</v>
       </c>
       <c r="C970" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D970" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E970" t="s">
         <v>46</v>
       </c>
       <c r="F970" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G970">
-        <v>-0.755015416586647</v>
+        <v>-0.463629744239522</v>
       </c>
       <c r="H970" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -29839,22 +29842,22 @@
         <v>220</v>
       </c>
       <c r="C971" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D971" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E971" t="s">
-        <v>46</v>
+        <v>592</v>
       </c>
       <c r="F971" t="s">
         <v>13</v>
       </c>
       <c r="G971">
-        <v>-0.463629744239522</v>
+        <v>-1.60689726556831</v>
       </c>
       <c r="H971" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -29865,22 +29868,22 @@
         <v>220</v>
       </c>
       <c r="C972" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D972" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E972" t="s">
-        <v>592</v>
+        <v>46</v>
       </c>
       <c r="F972" t="s">
         <v>13</v>
       </c>
       <c r="G972">
-        <v>-1.60689726556831</v>
+        <v>0.199849328529417</v>
       </c>
       <c r="H972" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -29903,7 +29906,7 @@
         <v>13</v>
       </c>
       <c r="G973">
-        <v>0.199849328529417</v>
+        <v>-0.00699777484220836</v>
       </c>
       <c r="H973" t="s">
         <v>19</v>
@@ -29917,19 +29920,19 @@
         <v>220</v>
       </c>
       <c r="C974" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D974" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E974" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F974" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G974">
-        <v>-0.00699777484220836</v>
+        <v>-0.672104221738317</v>
       </c>
       <c r="H974" t="s">
         <v>19</v>
@@ -29943,22 +29946,22 @@
         <v>220</v>
       </c>
       <c r="C975" t="s">
-        <v>1036</v>
+        <v>1045</v>
       </c>
       <c r="D975" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E975" t="s">
-        <v>129</v>
+        <v>592</v>
       </c>
       <c r="F975" t="s">
         <v>35</v>
       </c>
       <c r="G975">
-        <v>-0.672104221738317</v>
+        <v>0.767872972223396</v>
       </c>
       <c r="H975" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -29969,22 +29972,22 @@
         <v>220</v>
       </c>
       <c r="C976" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D976" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E976" t="s">
         <v>592</v>
       </c>
       <c r="F976" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G976">
-        <v>0.767872972223396</v>
+        <v>-1.52458597444353</v>
       </c>
       <c r="H976" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -29995,22 +29998,22 @@
         <v>220</v>
       </c>
       <c r="C977" t="s">
-        <v>1043</v>
+        <v>158</v>
       </c>
       <c r="D977" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E977" t="s">
-        <v>592</v>
+        <v>46</v>
       </c>
       <c r="F977" t="s">
         <v>13</v>
       </c>
       <c r="G977">
-        <v>-1.52458597444353</v>
+        <v>0.84750276958787</v>
       </c>
       <c r="H977" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -30021,22 +30024,22 @@
         <v>220</v>
       </c>
       <c r="C978" t="s">
-        <v>158</v>
+        <v>1043</v>
       </c>
       <c r="D978" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E978" t="s">
-        <v>46</v>
+        <v>592</v>
       </c>
       <c r="F978" t="s">
         <v>13</v>
       </c>
       <c r="G978">
-        <v>0.84750276958787</v>
+        <v>-2.69128885829511</v>
       </c>
       <c r="H978" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -30047,22 +30050,22 @@
         <v>220</v>
       </c>
       <c r="C979" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D979" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E979" t="s">
-        <v>592</v>
+        <v>46</v>
       </c>
       <c r="F979" t="s">
         <v>13</v>
       </c>
       <c r="G979">
-        <v>-2.69128885829511</v>
+        <v>0.0433552225523083</v>
       </c>
       <c r="H979" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -30076,7 +30079,7 @@
         <v>1040</v>
       </c>
       <c r="D980" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E980" t="s">
         <v>46</v>
@@ -30085,7 +30088,7 @@
         <v>13</v>
       </c>
       <c r="G980">
-        <v>0.0433552225523083</v>
+        <v>-0.0368006582344397</v>
       </c>
       <c r="H980" t="s">
         <v>19</v>
@@ -30099,22 +30102,19 @@
         <v>220</v>
       </c>
       <c r="C981" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="D981" t="s">
-        <v>33</v>
-      </c>
-      <c r="E981" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F981" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G981">
-        <v>-0.0368006582344397</v>
+        <v>-2.1650551308333</v>
       </c>
       <c r="H981" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -30125,19 +30125,22 @@
         <v>220</v>
       </c>
       <c r="C982" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D982" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="E982" t="s">
+        <v>46</v>
       </c>
       <c r="F982" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G982">
-        <v>-2.1650551308333</v>
+        <v>-0.520113573401889</v>
       </c>
       <c r="H982" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -30151,7 +30154,7 @@
         <v>1040</v>
       </c>
       <c r="D983" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E983" t="s">
         <v>46</v>
@@ -30160,7 +30163,7 @@
         <v>13</v>
       </c>
       <c r="G983">
-        <v>-0.520113573401889</v>
+        <v>0.739936452667433</v>
       </c>
       <c r="H983" t="s">
         <v>19</v>
@@ -30174,22 +30177,22 @@
         <v>220</v>
       </c>
       <c r="C984" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="D984" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E984" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="F984" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G984">
-        <v>0.739936452667433</v>
+        <v>2.99794219295984</v>
       </c>
       <c r="H984" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -30200,22 +30203,22 @@
         <v>220</v>
       </c>
       <c r="C985" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="D985" t="s">
         <v>27</v>
       </c>
       <c r="E985" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="F985" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G985">
-        <v>2.99794219295984</v>
+        <v>-0.101928897654139</v>
       </c>
       <c r="H985" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -30226,22 +30229,22 @@
         <v>220</v>
       </c>
       <c r="C986" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D986" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E986" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F986" t="s">
         <v>13</v>
       </c>
       <c r="G986">
-        <v>-0.101928897654139</v>
+        <v>-2.09767751519702</v>
       </c>
       <c r="H986" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -30252,22 +30255,19 @@
         <v>220</v>
       </c>
       <c r="C987" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D987" t="s">
-        <v>17</v>
+        <v>1031</v>
       </c>
       <c r="E987" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="F987" t="s">
         <v>13</v>
       </c>
       <c r="G987">
-        <v>-2.09767751519702</v>
+        <v>-0.4265265464771</v>
       </c>
       <c r="H987" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -30278,16 +30278,16 @@
         <v>220</v>
       </c>
       <c r="C988" t="s">
-        <v>1031</v>
+        <v>1086</v>
+      </c>
+      <c r="D988" t="s">
+        <v>27</v>
       </c>
       <c r="E988" t="s">
-        <v>135</v>
-      </c>
-      <c r="F988" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G988">
-        <v>-0.4265265464771</v>
+        <v>0.210612047889776</v>
       </c>
       <c r="H988" t="s">
         <v>19</v>
@@ -30301,16 +30301,19 @@
         <v>220</v>
       </c>
       <c r="C989" t="s">
-        <v>1087</v>
+        <v>1031</v>
       </c>
       <c r="D989" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E989" t="s">
         <v>46</v>
       </c>
+      <c r="F989" t="s">
+        <v>13</v>
+      </c>
       <c r="G989">
-        <v>0.210612047889776</v>
+        <v>-0.079627966183863</v>
       </c>
       <c r="H989" t="s">
         <v>19</v>
@@ -30324,45 +30327,45 @@
         <v>220</v>
       </c>
       <c r="C990" t="s">
-        <v>1031</v>
+        <v>1159</v>
       </c>
       <c r="D990" t="s">
         <v>33</v>
       </c>
       <c r="E990" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F990" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G990">
-        <v>-0.079627966183863</v>
+        <v>-1.23970884198195</v>
       </c>
       <c r="H990" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="991" spans="1:8">
       <c r="A991" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B991" t="s">
         <v>220</v>
       </c>
       <c r="C991" t="s">
-        <v>1160</v>
+        <v>1058</v>
       </c>
       <c r="D991" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E991" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="F991" t="s">
         <v>35</v>
       </c>
       <c r="G991">
-        <v>-1.23970884198195</v>
+        <v>-1.1766621691036</v>
       </c>
       <c r="H991" t="s">
         <v>14</v>
@@ -30376,22 +30379,22 @@
         <v>220</v>
       </c>
       <c r="C992" t="s">
-        <v>1054</v>
+        <v>454</v>
       </c>
       <c r="D992" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E992" t="s">
-        <v>74</v>
+        <v>458</v>
       </c>
       <c r="F992" t="s">
         <v>35</v>
       </c>
       <c r="G992">
-        <v>-1.1766621691036</v>
+        <v>-0.730242945840816</v>
       </c>
       <c r="H992" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -30402,19 +30405,19 @@
         <v>220</v>
       </c>
       <c r="C993" t="s">
-        <v>454</v>
+        <v>1031</v>
       </c>
       <c r="D993" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E993" t="s">
-        <v>458</v>
+        <v>135</v>
       </c>
       <c r="F993" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G993">
-        <v>-0.730242945840816</v>
+        <v>0.0895657625240128</v>
       </c>
       <c r="H993" t="s">
         <v>19</v>
@@ -30428,19 +30431,19 @@
         <v>220</v>
       </c>
       <c r="C994" t="s">
-        <v>1031</v>
+        <v>1058</v>
       </c>
       <c r="D994" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E994" t="s">
         <v>135</v>
       </c>
       <c r="F994" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G994">
-        <v>0.0895657625240128</v>
+        <v>-0.239838294483646</v>
       </c>
       <c r="H994" t="s">
         <v>19</v>
@@ -30454,22 +30457,22 @@
         <v>220</v>
       </c>
       <c r="C995" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="D995" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E995" t="s">
-        <v>135</v>
+        <v>592</v>
       </c>
       <c r="F995" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G995">
-        <v>-0.239838294483646</v>
+        <v>-1.805928081484</v>
       </c>
       <c r="H995" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -30480,22 +30483,22 @@
         <v>220</v>
       </c>
       <c r="C996" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="D996" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E996" t="s">
-        <v>592</v>
+        <v>18</v>
       </c>
       <c r="F996" t="s">
         <v>13</v>
       </c>
       <c r="G996">
-        <v>-1.805928081484</v>
+        <v>-0.566775239836261</v>
       </c>
       <c r="H996" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -30506,22 +30509,19 @@
         <v>220</v>
       </c>
       <c r="C997" t="s">
-        <v>1036</v>
+        <v>1089</v>
       </c>
       <c r="D997" t="s">
         <v>45</v>
       </c>
-      <c r="E997" t="s">
-        <v>18</v>
-      </c>
       <c r="F997" t="s">
         <v>13</v>
       </c>
       <c r="G997">
-        <v>-0.566775239836261</v>
+        <v>-1.65952467096354</v>
       </c>
       <c r="H997" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -30532,19 +30532,22 @@
         <v>220</v>
       </c>
       <c r="C998" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D998" t="s">
-        <v>45</v>
+        <v>97</v>
+      </c>
+      <c r="E998" t="s">
+        <v>46</v>
       </c>
       <c r="F998" t="s">
         <v>13</v>
       </c>
       <c r="G998">
-        <v>-1.65952467096354</v>
+        <v>0.189118690762428</v>
       </c>
       <c r="H998" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -30555,10 +30558,10 @@
         <v>220</v>
       </c>
       <c r="C999" t="s">
-        <v>1087</v>
+        <v>1040</v>
       </c>
       <c r="D999" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E999" t="s">
         <v>46</v>
@@ -30567,10 +30570,10 @@
         <v>13</v>
       </c>
       <c r="G999">
-        <v>0.189118690762428</v>
+        <v>0.821292759947628</v>
       </c>
       <c r="H999" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -30581,10 +30584,10 @@
         <v>220</v>
       </c>
       <c r="C1000" t="s">
-        <v>1040</v>
+        <v>1086</v>
       </c>
       <c r="D1000" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="E1000" t="s">
         <v>46</v>
@@ -30593,7 +30596,7 @@
         <v>13</v>
       </c>
       <c r="G1000">
-        <v>0.821292759947628</v>
+        <v>0.981707471447153</v>
       </c>
       <c r="H1000" t="s">
         <v>25</v>
@@ -30607,7 +30610,7 @@
         <v>220</v>
       </c>
       <c r="C1001" t="s">
-        <v>1087</v>
+        <v>1040</v>
       </c>
       <c r="D1001" t="s">
         <v>27</v>
@@ -30619,10 +30622,10 @@
         <v>13</v>
       </c>
       <c r="G1001">
-        <v>0.981707471447153</v>
+        <v>-1.40674248466421</v>
       </c>
       <c r="H1001" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -30633,22 +30636,22 @@
         <v>220</v>
       </c>
       <c r="C1002" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D1002" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E1002" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="F1002" t="s">
         <v>13</v>
       </c>
       <c r="G1002">
-        <v>-1.40674248466421</v>
+        <v>0.255984215205346</v>
       </c>
       <c r="H1002" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -30662,7 +30665,7 @@
         <v>1036</v>
       </c>
       <c r="D1003" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E1003" t="s">
         <v>18</v>
@@ -30671,10 +30674,10 @@
         <v>13</v>
       </c>
       <c r="G1003">
-        <v>0.255984215205346</v>
+        <v>0.933675298698276</v>
       </c>
       <c r="H1003" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -30685,22 +30688,22 @@
         <v>220</v>
       </c>
       <c r="C1004" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="D1004" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E1004" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="F1004" t="s">
         <v>13</v>
       </c>
       <c r="G1004">
-        <v>0.933675298698276</v>
+        <v>-0.247319602995807</v>
       </c>
       <c r="H1004" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -30711,19 +30714,19 @@
         <v>220</v>
       </c>
       <c r="C1005" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="D1005" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E1005" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F1005" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G1005">
-        <v>-0.247319602995807</v>
+        <v>-0.489342935044662</v>
       </c>
       <c r="H1005" t="s">
         <v>19</v>
@@ -30737,22 +30740,22 @@
         <v>220</v>
       </c>
       <c r="C1006" t="s">
-        <v>1036</v>
+        <v>1045</v>
       </c>
       <c r="D1006" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="E1006" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F1006" t="s">
         <v>35</v>
       </c>
       <c r="G1006">
-        <v>-0.489342935044662</v>
+        <v>1.79561706166954</v>
       </c>
       <c r="H1006" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -30763,22 +30766,22 @@
         <v>220</v>
       </c>
       <c r="C1007" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="D1007" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="E1007" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="F1007" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G1007">
-        <v>1.79561706166954</v>
+        <v>-1.75491624395535</v>
       </c>
       <c r="H1007" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -30789,22 +30792,22 @@
         <v>220</v>
       </c>
       <c r="C1008" t="s">
-        <v>1031</v>
+        <v>1086</v>
       </c>
       <c r="D1008" t="s">
         <v>17</v>
       </c>
       <c r="E1008" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F1008" t="s">
         <v>13</v>
       </c>
       <c r="G1008">
-        <v>-1.75491624395535</v>
+        <v>-0.151814841377286</v>
       </c>
       <c r="H1008" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -30815,10 +30818,10 @@
         <v>220</v>
       </c>
       <c r="C1009" t="s">
-        <v>1087</v>
+        <v>1040</v>
       </c>
       <c r="D1009" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E1009" t="s">
         <v>46</v>
@@ -30827,7 +30830,7 @@
         <v>13</v>
       </c>
       <c r="G1009">
-        <v>-0.151814841377286</v>
+        <v>0.627116975162233</v>
       </c>
       <c r="H1009" t="s">
         <v>19</v>
@@ -30841,10 +30844,10 @@
         <v>220</v>
       </c>
       <c r="C1010" t="s">
-        <v>1040</v>
+        <v>1086</v>
       </c>
       <c r="D1010" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E1010" t="s">
         <v>46</v>
@@ -30853,7 +30856,7 @@
         <v>13</v>
       </c>
       <c r="G1010">
-        <v>0.627116975162233</v>
+        <v>-0.0704562546131015</v>
       </c>
       <c r="H1010" t="s">
         <v>19</v>
@@ -30867,22 +30870,22 @@
         <v>220</v>
       </c>
       <c r="C1011" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="D1011" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E1011" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F1011" t="s">
         <v>13</v>
       </c>
       <c r="G1011">
-        <v>-0.0704562546131015</v>
+        <v>1.31323596008584</v>
       </c>
       <c r="H1011" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -30893,10 +30896,10 @@
         <v>220</v>
       </c>
       <c r="C1012" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D1012" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1012" t="s">
         <v>129</v>
@@ -30905,10 +30908,10 @@
         <v>13</v>
       </c>
       <c r="G1012">
-        <v>1.31323596008584</v>
+        <v>-0.875577602333723</v>
       </c>
       <c r="H1012" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -30919,19 +30922,19 @@
         <v>220</v>
       </c>
       <c r="C1013" t="s">
-        <v>1081</v>
+        <v>1058</v>
       </c>
       <c r="D1013" t="s">
         <v>21</v>
       </c>
       <c r="E1013" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="F1013" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G1013">
-        <v>-0.875577602333723</v>
+        <v>-2.20850219712287</v>
       </c>
       <c r="H1013" t="s">
         <v>14</v>
@@ -30945,22 +30948,22 @@
         <v>220</v>
       </c>
       <c r="C1014" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D1014" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E1014" t="s">
-        <v>252</v>
+        <v>46</v>
       </c>
       <c r="F1014" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G1014">
-        <v>-2.20850219712287</v>
+        <v>0.126720768318448</v>
       </c>
       <c r="H1014" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -30971,45 +30974,45 @@
         <v>220</v>
       </c>
       <c r="C1015" t="s">
-        <v>1040</v>
+        <v>1185</v>
       </c>
       <c r="D1015" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E1015" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F1015" t="s">
         <v>13</v>
       </c>
       <c r="G1015">
-        <v>0.126720768318448</v>
+        <v>-3.00904132531859</v>
       </c>
       <c r="H1015" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
       <c r="A1016" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B1016" t="s">
         <v>220</v>
       </c>
       <c r="C1016" t="s">
-        <v>1186</v>
+        <v>1058</v>
       </c>
       <c r="D1016" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E1016" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="F1016" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G1016">
-        <v>-3.00904132531859</v>
+        <v>-1.84400001616347</v>
       </c>
       <c r="H1016" t="s">
         <v>14</v>
@@ -31023,48 +31026,48 @@
         <v>220</v>
       </c>
       <c r="C1017" t="s">
-        <v>1054</v>
+        <v>1188</v>
       </c>
       <c r="D1017" t="s">
         <v>33</v>
       </c>
       <c r="E1017" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F1017" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G1017">
-        <v>-1.84400001616347</v>
+        <v>1.83026083002483</v>
       </c>
       <c r="H1017" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
       <c r="A1018" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B1018" t="s">
         <v>220</v>
       </c>
       <c r="C1018" t="s">
-        <v>1189</v>
+        <v>1040</v>
       </c>
       <c r="D1018" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="E1018" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F1018" t="s">
         <v>13</v>
       </c>
       <c r="G1018">
-        <v>1.83026083002483</v>
+        <v>0.0677879954716774</v>
       </c>
       <c r="H1018" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -31078,7 +31081,7 @@
         <v>1040</v>
       </c>
       <c r="D1019" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="E1019" t="s">
         <v>46</v>
@@ -31087,7 +31090,7 @@
         <v>13</v>
       </c>
       <c r="G1019">
-        <v>0.0677879954716774</v>
+        <v>-0.401094466974598</v>
       </c>
       <c r="H1019" t="s">
         <v>19</v>
@@ -31101,22 +31104,22 @@
         <v>220</v>
       </c>
       <c r="C1020" t="s">
-        <v>1040</v>
+        <v>1089</v>
       </c>
       <c r="D1020" t="s">
         <v>17</v>
       </c>
       <c r="E1020" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="F1020" t="s">
         <v>13</v>
       </c>
       <c r="G1020">
-        <v>-0.401094466974598</v>
+        <v>-1.0982111097139</v>
       </c>
       <c r="H1020" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -31127,19 +31130,19 @@
         <v>220</v>
       </c>
       <c r="C1021" t="s">
-        <v>1090</v>
+        <v>1058</v>
       </c>
       <c r="D1021" t="s">
         <v>17</v>
       </c>
       <c r="E1021" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="F1021" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G1021">
-        <v>-1.0982111097139</v>
+        <v>-1.07626259208571</v>
       </c>
       <c r="H1021" t="s">
         <v>14</v>
@@ -31153,22 +31156,22 @@
         <v>220</v>
       </c>
       <c r="C1022" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D1022" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1022" t="s">
         <v>46</v>
       </c>
       <c r="F1022" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G1022">
-        <v>-1.07626259208571</v>
+        <v>0.43733451432864</v>
       </c>
       <c r="H1022" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -31179,7 +31182,7 @@
         <v>220</v>
       </c>
       <c r="C1023" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="D1023" t="s">
         <v>27</v>
@@ -31188,13 +31191,13 @@
         <v>46</v>
       </c>
       <c r="F1023" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G1023">
-        <v>0.43733451432864</v>
+        <v>1.77413109445443</v>
       </c>
       <c r="H1023" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -31205,22 +31208,22 @@
         <v>220</v>
       </c>
       <c r="C1024" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="D1024" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E1024" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F1024" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G1024">
-        <v>1.77413109445443</v>
+        <v>0.368171820892068</v>
       </c>
       <c r="H1024" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -31231,45 +31234,45 @@
         <v>220</v>
       </c>
       <c r="C1025" t="s">
-        <v>1031</v>
+        <v>1197</v>
       </c>
       <c r="D1025" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E1025" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="F1025" t="s">
         <v>13</v>
       </c>
       <c r="G1025">
-        <v>0.368171820892068</v>
+        <v>-1.1444934977267</v>
       </c>
       <c r="H1025" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
       <c r="A1026" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B1026" t="s">
         <v>220</v>
       </c>
       <c r="C1026" t="s">
-        <v>1198</v>
+        <v>1058</v>
       </c>
       <c r="D1026" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E1026" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1026" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G1026">
-        <v>-1.1444934977267</v>
+        <v>-1.17729978342377</v>
       </c>
       <c r="H1026" t="s">
         <v>14</v>
@@ -31283,22 +31286,22 @@
         <v>220</v>
       </c>
       <c r="C1027" t="s">
-        <v>1054</v>
+        <v>682</v>
       </c>
       <c r="D1027" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E1027" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="F1027" t="s">
         <v>35</v>
       </c>
       <c r="G1027">
-        <v>-1.17729978342377</v>
+        <v>1.75227456329307</v>
       </c>
       <c r="H1027" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -31309,19 +31312,19 @@
         <v>220</v>
       </c>
       <c r="C1028" t="s">
-        <v>682</v>
+        <v>1040</v>
       </c>
       <c r="D1028" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E1028" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="F1028" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G1028">
-        <v>1.75227456329307</v>
+        <v>1.50005847375532</v>
       </c>
       <c r="H1028" t="s">
         <v>25</v>
@@ -31335,22 +31338,22 @@
         <v>220</v>
       </c>
       <c r="C1029" t="s">
-        <v>1040</v>
+        <v>1188</v>
       </c>
       <c r="D1029" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E1029" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F1029" t="s">
         <v>13</v>
       </c>
       <c r="G1029">
-        <v>1.50005847375532</v>
+        <v>0.571545640168407</v>
       </c>
       <c r="H1029" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -31361,48 +31364,48 @@
         <v>220</v>
       </c>
       <c r="C1030" t="s">
-        <v>1189</v>
+        <v>1203</v>
       </c>
       <c r="D1030" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E1030" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F1030" t="s">
         <v>13</v>
       </c>
       <c r="G1030">
-        <v>0.571545640168407</v>
+        <v>1.33454436069748</v>
       </c>
       <c r="H1030" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
       <c r="A1031" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B1031" t="s">
         <v>220</v>
       </c>
       <c r="C1031" t="s">
-        <v>1204</v>
+        <v>1033</v>
       </c>
       <c r="D1031" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E1031" t="s">
         <v>39</v>
       </c>
       <c r="F1031" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G1031">
-        <v>1.33454436069748</v>
+        <v>-3.27400124547234</v>
       </c>
       <c r="H1031" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -31413,19 +31416,19 @@
         <v>220</v>
       </c>
       <c r="C1032" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="D1032" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E1032" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F1032" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G1032">
-        <v>-3.27400124547234</v>
+        <v>-2.04598543976054</v>
       </c>
       <c r="H1032" t="s">
         <v>14</v>
@@ -31439,19 +31442,19 @@
         <v>220</v>
       </c>
       <c r="C1033" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="D1033" t="s">
         <v>11</v>
       </c>
       <c r="E1033" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F1033" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G1033">
-        <v>-2.04598543976054</v>
+        <v>-1.3479138906072</v>
       </c>
       <c r="H1033" t="s">
         <v>14</v>
@@ -31465,19 +31468,19 @@
         <v>220</v>
       </c>
       <c r="C1034" t="s">
-        <v>1033</v>
+        <v>1058</v>
       </c>
       <c r="D1034" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E1034" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F1034" t="s">
         <v>35</v>
       </c>
       <c r="G1034">
-        <v>-1.3479138906072</v>
+        <v>-1.06841848349153</v>
       </c>
       <c r="H1034" t="s">
         <v>14</v>
@@ -31491,19 +31494,19 @@
         <v>220</v>
       </c>
       <c r="C1035" t="s">
-        <v>1054</v>
+        <v>1209</v>
       </c>
       <c r="D1035" t="s">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="E1035" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F1035" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G1035">
-        <v>-1.06841848349153</v>
+        <v>-3.83293888178405</v>
       </c>
       <c r="H1035" t="s">
         <v>14</v>
@@ -31511,25 +31514,25 @@
     </row>
     <row r="1036" spans="1:8">
       <c r="A1036" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B1036" t="s">
         <v>220</v>
       </c>
       <c r="C1036" t="s">
-        <v>1210</v>
+        <v>1188</v>
       </c>
       <c r="D1036" t="s">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="E1036" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F1036" t="s">
         <v>13</v>
       </c>
       <c r="G1036">
-        <v>-3.83293888178405</v>
+        <v>-1.52303691694743</v>
       </c>
       <c r="H1036" t="s">
         <v>14</v>
@@ -31543,47 +31546,21 @@
         <v>220</v>
       </c>
       <c r="C1037" t="s">
-        <v>1189</v>
+        <v>1040</v>
       </c>
       <c r="D1037" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E1037" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F1037" t="s">
         <v>13</v>
       </c>
       <c r="G1037">
-        <v>-1.52303691694743</v>
+        <v>0.423353069366166</v>
       </c>
       <c r="H1037" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:8">
-      <c r="A1038" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B1038" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1038" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D1038" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1038" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1038" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1038">
-        <v>0.423353069366166</v>
-      </c>
-      <c r="H1038" t="s">
         <v>19</v>
       </c>
     </row>
